--- a/va_facility_data_2025-02-20/Rogersville VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Rogersville%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Rogersville VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Rogersville%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Re7f25c4373cf4ee98255cd1d5b674a58"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rfdea1af8d7f44089afb1f72221422f6f"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Ra9516597ac7d4346934a9f9c94e111cf"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R9c62fa1ee2d6481fa6baa40d242f6efd"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R937677f483d64684ab18904be2757f81"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rc97f88bd799e4b3a983271c0c8e684ff"/>
   </x:sheets>
 </x:workbook>
 </file>
